--- a/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>MKFG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-2100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,16 +1050,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,25 +1134,28 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1230,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1262,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,16 +1434,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1454,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1518,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1617,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,26 +1743,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,26 +1775,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1717,11 +1822,11 @@
         <v>215100</v>
       </c>
       <c r="F47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="G47" s="3">
         <v>215000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,8 +1839,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,26 +2031,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E54" s="3">
         <v>215900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>216300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>216400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2093,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1972,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,26 +2155,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,25 +2187,28 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,23 +2251,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E62" s="3">
         <v>30200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2379,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E66" s="3">
         <v>32000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2553,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2681,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E76" s="3">
         <v>183900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>190700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>208800</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2782,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,22 +3020,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,20 +3336,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,22 +3400,25 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>MKFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,31 +715,34 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>24000</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>40500</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -746,16 +750,19 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -778,16 +785,19 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,16 +837,17 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11700</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,28 +989,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>46400</v>
       </c>
       <c r="E17" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -995,25 +1022,28 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-22400</v>
       </c>
       <c r="E18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
+        <v>-19800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,25 +1074,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>44100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1107,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,20 +1156,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1137,28 +1177,31 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1900</v>
+        <v>21700</v>
       </c>
       <c r="E23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1169,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,20 +1226,20 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,28 +1282,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>21700</v>
       </c>
       <c r="E26" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1265,28 +1317,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1900</v>
+        <v>21700</v>
       </c>
       <c r="E27" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,25 +1492,28 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-44100</v>
       </c>
       <c r="E32" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1457,28 +1527,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1900</v>
+        <v>21700</v>
       </c>
       <c r="E33" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,28 +1597,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1900</v>
+        <v>21700</v>
       </c>
       <c r="E35" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1553,34 +1632,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,26 +1704,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>296700</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,31 +1772,34 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>24100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1714,31 +1807,34 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>11300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1746,29 +1842,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,29 +1877,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,13 +1912,16 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>215100</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>215100</v>
@@ -1825,11 +1930,11 @@
         <v>215100</v>
       </c>
       <c r="G47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="H47" s="3">
         <v>215000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,31 +1947,34 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,31 +2087,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,29 +2157,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>344100</v>
+      </c>
+      <c r="E54" s="3">
         <v>215700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>215900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>216300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>216400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,28 +2224,29 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,29 +2292,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,28 +2327,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,26 +2397,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E62" s="3">
         <v>27100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>30200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,29 +2537,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E66" s="3">
         <v>29900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,28 +2727,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,28 +2867,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E76" s="3">
         <v>185800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>183900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>190700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +2937,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,28 +2977,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1900</v>
+        <v>21700</v>
       </c>
       <c r="E81" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,28 +3237,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,8 +3392,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,8 +3582,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,12 +3596,12 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3617,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,28 +3652,31 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>238600</v>
       </c>
       <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>MKFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,50 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,20 +718,23 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E8" s="3">
         <v>24000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40500</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,8 +747,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -753,20 +756,23 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E9" s="3">
         <v>10300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16400</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,20 +794,23 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,20 +850,21 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E12" s="3">
         <v>9800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11700</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1015,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E17" s="3">
         <v>46400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>60300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,20 +1051,23 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,20 +1107,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E20" s="3">
         <v>44100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1145,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,8 +1195,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1171,8 +1210,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1180,31 +1219,34 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>21700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,19 +1257,22 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1241,8 +1286,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1250,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1333,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>21700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1371,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>21700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,20 +1561,23 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-44100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,31 +1599,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>21700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1675,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>21700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,37 +1713,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,29 +1790,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>288600</v>
+      </c>
+      <c r="E41" s="3">
         <v>296700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,17 +1864,20 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E43" s="3">
         <v>24100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,8 +1893,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1810,17 +1902,20 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E44" s="3">
         <v>11300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1836,8 +1931,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1845,32 +1940,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,32 +1978,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>330200</v>
+      </c>
+      <c r="E46" s="3">
         <v>338000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,16 +2016,19 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>215100</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>215100</v>
@@ -1933,11 +2037,11 @@
         <v>215100</v>
       </c>
       <c r="H47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="I47" s="3">
         <v>215000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,17 +2054,20 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1976,8 +2083,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1985,8 +2092,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,16 +2206,19 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2116,8 +2235,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,32 +2282,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>337300</v>
+      </c>
+      <c r="E54" s="3">
         <v>344100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>215700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>215900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>216300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>216400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,31 +2354,32 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2260,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,32 +2428,35 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E59" s="3">
         <v>19500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,31 +2466,34 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E60" s="3">
         <v>21700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2365,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,29 +2542,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E62" s="3">
         <v>89300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,32 +2694,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E66" s="3">
         <v>111000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,31 +2900,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,31 +3052,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E76" s="3">
         <v>233100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>185800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>183900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>190700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208800</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,37 +3128,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,31 +3171,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>21700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,28 +3453,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,31 +3621,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-215000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3430,8 +3659,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3827,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3599,11 +3844,11 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>216500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3620,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,28 +3903,31 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>238600</v>
       </c>
-      <c r="E102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,23 +722,26 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E8" s="3">
         <v>26600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,8 +754,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -759,23 +763,26 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16400</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,23 +804,26 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E10" s="3">
         <v>15000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,23 +864,24 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E12" s="3">
         <v>10700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11700</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,34 +1042,35 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E17" s="3">
         <v>45600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1054,23 +1081,26 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-22400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,23 +1141,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E20" s="3">
         <v>22300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>44100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,16 +1180,19 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,8 +1238,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1213,8 +1253,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1222,34 +1262,37 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1260,22 +1303,25 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1289,8 +1335,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,34 +1385,37 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1374,34 +1426,37 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,23 +1631,26 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-44100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,34 +1672,37 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,34 +1754,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1716,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,32 +1877,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>269100</v>
+      </c>
+      <c r="E41" s="3">
         <v>288600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>296700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,20 +1957,23 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E43" s="3">
         <v>26800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,8 +1989,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1905,20 +1998,23 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E44" s="3">
         <v>10400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1934,8 +2030,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1943,35 +2039,38 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,35 +2080,38 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>310300</v>
+      </c>
+      <c r="E46" s="3">
         <v>330200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>338000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2030,8 +2135,8 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>215100</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>215100</v>
@@ -2040,11 +2145,11 @@
         <v>215100</v>
       </c>
       <c r="I47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="J47" s="3">
         <v>215000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,20 +2162,23 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,8 +2194,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,19 +2326,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2238,8 +2358,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,35 +2408,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>329700</v>
+      </c>
+      <c r="E54" s="3">
         <v>337300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>344100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>215700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>215900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>216300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>216400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,34 +2485,35 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>11400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,35 +2565,38 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
         <v>14000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,34 +2606,37 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E60" s="3">
         <v>25400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>200</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,32 +2688,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E62" s="3">
         <v>67700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,35 +2852,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E66" s="3">
         <v>93100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,34 +3074,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-75700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,34 +3238,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>254400</v>
+      </c>
+      <c r="E76" s="3">
         <v>244200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>233100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>185800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>183900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>190700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208800</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,34 +3366,37 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,31 +3426,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,31 +3670,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-19200</v>
       </c>
       <c r="E89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-38200</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,31 +3730,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,16 +3851,19 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -3641,17 +3871,17 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-215000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,16 +4073,19 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3847,11 +4093,11 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>216500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,31 +4155,34 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-19500</v>
       </c>
       <c r="E102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F102" s="3">
         <v>238600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>-600</v>
       </c>
       <c r="H102" s="3">
-        <v>900</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>MKFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F8" s="3">
         <v>21900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>26600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>24000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>40500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,38 +765,44 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10300</v>
+        <v>13000</v>
       </c>
       <c r="E9" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="F9" s="3">
         <v>10300</v>
       </c>
       <c r="G9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I9" s="3">
         <v>16400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,29 +821,35 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F10" s="3">
         <v>11600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>15000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>13700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>24100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +868,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,29 +891,31 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F12" s="3">
         <v>10600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>10700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>9800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>11700</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +934,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +981,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1028,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1075,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,40 +1095,42 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F17" s="3">
         <v>43000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>45600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>46400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>60300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1084,29 +1138,35 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-19000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-22400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-19800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1185,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,29 +1208,31 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F20" s="3">
         <v>25300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>22300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>44100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,23 +1251,29 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F21" s="3">
         <v>5400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1298,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1241,11 +1321,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1256,49 +1336,55 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1306,8 +1392,14 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1315,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1338,17 +1430,23 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,40 +1486,46 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-21100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1429,40 +1533,46 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-21100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1580,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,29 +1768,35 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-25300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-22300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-44100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,40 +1815,46 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-21100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1862,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,40 +1909,46 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-21100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1798,54 +1956,66 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,38 +2050,40 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>243200</v>
+      </c>
+      <c r="F41" s="3">
         <v>269100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>288600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>296700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2093,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,26 +2140,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F43" s="3">
         <v>22800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>26800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>24100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,35 +2178,41 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F44" s="3">
         <v>12800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>11300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2033,99 +2225,117 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>293000</v>
+      </c>
+      <c r="F46" s="3">
         <v>310300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>330200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>338000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2138,24 +2348,24 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>215100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>215100</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>215100</v>
       </c>
       <c r="J47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="L47" s="3">
         <v>215000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,26 +2375,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F48" s="3">
         <v>18400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,40 +2413,46 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>46600</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>6700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2247,8 +2469,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,26 +2563,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,17 +2601,23 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,49 +2657,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>351900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>356100</v>
+      </c>
+      <c r="F54" s="3">
         <v>329700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>337300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>344100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>215700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>215900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>216300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>216400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,40 +2746,42 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>11400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2789,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,90 +2836,108 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F59" s="3">
         <v>17400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>19500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F60" s="3">
         <v>24000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>25400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,38 +2977,44 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F62" s="3">
         <v>51200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>67700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>89300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>27100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>30200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>25400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +3024,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,49 +3165,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>89800</v>
+      </c>
+      <c r="F66" s="3">
         <v>75300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>93100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>111000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>29900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>32000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>25600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,40 +3419,46 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-71500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-75700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-79000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3466,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,40 +3607,46 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>266400</v>
+      </c>
+      <c r="F76" s="3">
         <v>254400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>244200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>233100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>185800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>183900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>190700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>208800</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3654,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,86 +3701,98 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-21100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3800,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,23 +3823,25 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3453,11 +3851,11 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3468,8 +3866,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,37 +4101,43 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-19200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-38200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-400</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +4148,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,23 +4171,25 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3757,11 +4199,11 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3772,8 +4214,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,40 +4308,46 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3895,8 +4355,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4562,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>600</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4609,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4656,44 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-19500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>238600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4701,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>MKFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,65 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,32 +733,35 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E8" s="3">
         <v>25200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -771,8 +774,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -780,32 +783,35 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E9" s="3">
         <v>13000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16400</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,32 +833,35 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,32 +905,33 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="E12" s="3">
         <v>10400</v>
       </c>
       <c r="F12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G12" s="3">
         <v>10600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11700</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,43 +1122,44 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="E17" s="3">
         <v>48000</v>
       </c>
       <c r="F17" s="3">
+        <v>48000</v>
+      </c>
+      <c r="G17" s="3">
         <v>43000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>46400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1144,32 +1170,35 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,32 +1242,33 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>27900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>25300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>22300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>44100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,26 +1290,29 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1327,8 +1366,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1342,8 +1381,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1351,43 +1390,46 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1398,13 +1440,16 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1413,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1436,8 +1481,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1445,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,43 +1540,46 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1539,43 +1590,46 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1586,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,32 +1840,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-27900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-25300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-22300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-44100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,43 +1890,46 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1868,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,43 +1990,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1962,49 +2040,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,41 +2137,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E41" s="3">
         <v>181800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>243200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>269100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>288600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>296700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,31 +2185,34 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>43700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2146,29 +2235,32 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E43" s="3">
         <v>30100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2276,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2193,29 +2285,32 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E44" s="3">
         <v>24600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2326,8 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2240,44 +2335,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,44 +2385,47 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E46" s="3">
         <v>243100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>293000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>310300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>330200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>338000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2435,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2354,8 +2458,8 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>215100</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>215100</v>
@@ -2364,11 +2468,11 @@
         <v>215100</v>
       </c>
       <c r="L47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="M47" s="3">
         <v>215000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,29 +2485,32 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E48" s="3">
         <v>59000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>53600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2419,8 +2526,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2428,20 +2535,23 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E49" s="3">
         <v>46600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2564,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2475,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,28 +2685,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2607,8 +2726,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2616,8 +2735,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,44 +2785,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E54" s="3">
         <v>351900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>356100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>329700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>337300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>344100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>215700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>215900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>216300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>216400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,43 +2877,44 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E57" s="3">
         <v>10800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2795,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2842,44 +2975,47 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,43 +3025,46 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E60" s="3">
         <v>35300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>200</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
@@ -2936,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,41 +3125,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E62" s="3">
         <v>58600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>67700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,44 +3325,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E66" s="3">
         <v>93800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>89800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,43 +3595,46 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-101100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-90400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-71500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-75700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,43 +3795,46 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E76" s="3">
         <v>258100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>266400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>254400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>244200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>233100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>185800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>183900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>190700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>208800</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3895,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,43 +3950,46 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3806,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,26 +4022,27 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3857,8 +4055,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3872,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,31 +4392,32 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4205,8 +4425,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4220,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,43 +4540,46 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4361,8 +4590,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,38 +4810,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>600</v>
       </c>
       <c r="F100" s="3">
         <v>600</v>
       </c>
       <c r="G100" s="3">
+        <v>600</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,31 +4860,34 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4662,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>238600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>MKFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,117 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F8" s="3">
         <v>29700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>25200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>24200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>21900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>26600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>24000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>40500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,47 +785,53 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F9" s="3">
         <v>15700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11600</v>
       </c>
       <c r="I9" s="3">
         <v>10300</v>
       </c>
       <c r="J9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10300</v>
+      </c>
+      <c r="L9" s="3">
         <v>16400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,38 +850,44 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F10" s="3">
         <v>14000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>12200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>12900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>11600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>15000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>13700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>24100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +906,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,38 +932,40 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="E12" s="3">
         <v>10400</v>
       </c>
       <c r="F12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G12" s="3">
         <v>10400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I12" s="3">
         <v>10600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>10700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>11700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +984,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1040,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1096,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1152,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,49 +1175,51 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F17" s="3">
         <v>49000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>48000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>48000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>43000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>45600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>46400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>60300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1173,38 +1227,44 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-22800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-23800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-21100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-22400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-19800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1283,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,38 +1309,40 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>8100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>27900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>25300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>22300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>44100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,32 +1361,38 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-20300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>5400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,16 +1417,22 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1369,11 +1449,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1384,58 +1464,64 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-21100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1443,8 +1529,14 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,25 +1547,25 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1484,17 +1576,23 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,49 +1641,55 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-23000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>21700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-21100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1593,49 +1697,55 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-23000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>21700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-21100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1753,14 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1809,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1865,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1921,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,38 +1977,44 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-27900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-25300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-22300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-44100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,49 +2033,55 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-23000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>21700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-21100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2089,14 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,49 +2145,55 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-23000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>21700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-21100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2043,63 +2201,75 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2288,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,47 +2310,49 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>90700</v>
+      </c>
+      <c r="F41" s="3">
         <v>124200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>181800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>243200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>269100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>288600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>296700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,20 +2362,26 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>60800</v>
+      </c>
+      <c r="F42" s="3">
         <v>43700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2214,11 +2394,11 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2238,35 +2418,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F43" s="3">
         <v>29300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>30100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>26600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>22800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>26800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>24100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,44 +2465,50 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F44" s="3">
         <v>26400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>24600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>10400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>11300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,156 +2521,174 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>212500</v>
+      </c>
+      <c r="F46" s="3">
         <v>229800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>243100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>293000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>310300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>330200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>338000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>215100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>215100</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>215100</v>
       </c>
       <c r="M47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="O47" s="3">
         <v>215000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,35 +2698,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>63700</v>
+      </c>
+      <c r="F48" s="3">
         <v>64300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>59000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>53600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,35 +2745,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F49" s="3">
         <v>48700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>46600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,11 +2789,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2588,8 +2810,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2866,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,35 +2922,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,17 +2969,23 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,58 +3034,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>327900</v>
+      </c>
+      <c r="F54" s="3">
         <v>345900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>351900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>356100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>329700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>337300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>344100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>215700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>215900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>216300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>216400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +3116,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,49 +3138,51 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F57" s="3">
         <v>14400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -2928,8 +3190,14 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,108 +3246,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F59" s="3">
         <v>26500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>23000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>17400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>14000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F60" s="3">
         <v>41000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>35300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>33500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>24000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>25400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>21700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,47 +3414,53 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F62" s="3">
         <v>52400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>58600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>56200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>51200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>67700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>89300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>27100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>30200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>25400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3470,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3526,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3582,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,58 +3638,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>89800</v>
+      </c>
+      <c r="F66" s="3">
         <v>93400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>93800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>89800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>75300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>93100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>111000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>29900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>32000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>25600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3720,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3772,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3828,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3884,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,49 +3940,55 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-139100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-101100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-90400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-67400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-71500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-75700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-79000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3996,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +4052,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +4108,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,49 +4164,55 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>238100</v>
+      </c>
+      <c r="F76" s="3">
         <v>252600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>258100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>266400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>254400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>244200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>233100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>185800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>183900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>190700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>208800</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -3848,8 +4220,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,104 +4276,116 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-23000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>21700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-21100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4393,14 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,32 +4419,34 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4058,11 +4456,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4073,8 +4471,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4527,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4583,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4639,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4695,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,46 +4751,52 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-23700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-22300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-19200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-38200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-400</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +4807,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,46 +4833,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4443,8 +4885,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4941,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,49 +4997,55 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-49300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-38100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4593,8 +5053,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +5079,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +5131,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +5187,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5243,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5299,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,19 +5355,25 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -4889,11 +5387,11 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4913,47 +5411,53 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-57600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-61400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-24500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>238600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5465,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>MKFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,41 +745,44 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E8" s="3">
         <v>25400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -791,8 +795,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -800,41 +804,44 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E9" s="3">
         <v>13500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,41 +863,44 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E10" s="3">
         <v>11900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,41 +947,42 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E12" s="3">
         <v>10300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10400</v>
       </c>
       <c r="H12" s="3">
         <v>10400</v>
       </c>
       <c r="I12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J12" s="3">
         <v>10600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,31 +1063,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>29500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,52 +1203,53 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E17" s="3">
         <v>45500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>48000</v>
       </c>
       <c r="H17" s="3">
         <v>48000</v>
       </c>
       <c r="I17" s="3">
+        <v>48000</v>
+      </c>
+      <c r="J17" s="3">
         <v>43000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1233,41 +1260,44 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,41 +1344,42 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>44100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,35 +1401,38 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-16600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,19 +1460,22 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1455,8 +1495,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1510,8 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1479,52 +1519,55 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1535,23 +1578,26 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1559,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1582,8 +1628,8 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,52 +1696,55 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19000</v>
+        <v>-51400</v>
       </c>
       <c r="E26" s="3">
         <v>-19000</v>
       </c>
       <c r="F26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1703,52 +1755,55 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19000</v>
+        <v>-51400</v>
       </c>
       <c r="E27" s="3">
         <v>-19000</v>
       </c>
       <c r="F27" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-10700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,41 +2050,44 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-22300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-44100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,52 +2109,55 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19000</v>
+        <v>-51400</v>
       </c>
       <c r="E33" s="3">
         <v>-19000</v>
       </c>
       <c r="F33" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-10700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,52 +2227,55 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19000</v>
+        <v>-51400</v>
       </c>
       <c r="E35" s="3">
         <v>-19000</v>
       </c>
       <c r="F35" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-10700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,50 +2398,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E41" s="3">
         <v>85700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>124200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>181800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>243200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>269100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>288600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>296700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,23 +2455,26 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E42" s="3">
         <v>50400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>60800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2400,8 +2490,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2424,38 +2514,41 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E43" s="3">
         <v>27100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,8 +2564,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2480,38 +2573,41 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E44" s="3">
         <v>29600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>26400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2623,8 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2536,53 +2632,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,53 +2691,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E46" s="3">
         <v>197000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>212500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>229800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>243100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>293000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>310300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>330200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>338000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2674,11 +2779,11 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
-        <v>215100</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>215100</v>
@@ -2687,11 +2792,11 @@
         <v>215100</v>
       </c>
       <c r="O47" s="3">
+        <v>215100</v>
+      </c>
+      <c r="P47" s="3">
         <v>215000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,38 +2809,41 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E48" s="3">
         <v>57600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,8 +2859,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2760,29 +2868,32 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E49" s="3">
         <v>46900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>48700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2906,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,37 +3045,40 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>800</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2975,8 +3095,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,53 +3163,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>257400</v>
+      </c>
+      <c r="E54" s="3">
         <v>304900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>327900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>345900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>351900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>356100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>329700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>337300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>344100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>215700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>215900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>216300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>216400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,8 +3270,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3149,43 +3280,43 @@
         <v>11600</v>
       </c>
       <c r="E57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3196,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3252,53 +3386,56 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,52 +3445,55 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E60" s="3">
         <v>36200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
+      <c r="Q60" s="3">
+        <v>200</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
@@ -3364,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,50 +3563,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E62" s="3">
         <v>49600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>58600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>51200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>67700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,53 +3799,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E66" s="3">
         <v>85800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>89800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>89800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>111000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,52 +4117,55 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-190500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-139100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-120100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-101100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-90400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-75700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,52 +4353,55 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E76" s="3">
         <v>219100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>238100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>252600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>258100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>266400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>254400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>244200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>233100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>185800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>183900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>190700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>208800</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,52 +4535,55 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19000</v>
+        <v>-51400</v>
       </c>
       <c r="E81" s="3">
         <v>-19000</v>
       </c>
       <c r="F81" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-10700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,35 +4619,36 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4462,8 +4661,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,50 +4971,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,40 +5055,41 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4876,8 +5097,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,52 +5230,55 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>10500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,47 +5548,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>600</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
       </c>
       <c r="J100" s="3">
+        <v>600</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,22 +5607,25 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -5393,8 +5642,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5417,50 +5666,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-61400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>238600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
